--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scan QR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4CC80E-6B19-4D16-B7E4-963E8EEC5D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -787,8 +793,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,13 +857,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -895,7 +909,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -929,6 +943,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -963,9 +978,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1138,14 +1154,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E109" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="149.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1212,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1232,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1252,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1272,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1271,7 +1292,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1291,7 +1312,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1311,7 +1332,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1352,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1351,7 +1372,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1371,7 +1392,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1391,7 +1412,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1411,7 +1432,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +1452,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1472,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1471,7 +1492,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1491,7 +1512,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1511,7 +1532,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1531,7 +1552,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1551,7 +1572,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1571,7 +1592,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1591,7 +1612,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1611,7 +1632,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1631,7 +1652,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1651,7 +1672,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1671,7 +1692,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1691,7 +1712,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1711,7 +1732,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1731,7 +1752,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1751,7 +1772,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1771,7 +1792,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1791,7 +1812,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1811,7 +1832,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1831,7 +1852,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1851,7 +1872,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1871,7 +1892,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1891,7 +1912,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1911,7 +1932,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1931,7 +1952,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1951,7 +1972,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1971,7 +1992,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1991,7 +2012,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2011,7 +2032,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2031,7 +2052,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2051,7 +2072,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2071,7 +2092,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2091,7 +2112,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2111,7 +2132,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2131,7 +2152,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2151,7 +2172,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2171,7 +2192,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2191,7 +2212,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2211,7 +2232,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2231,7 +2252,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2251,7 +2272,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2271,7 +2292,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2291,7 +2312,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2311,7 +2332,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2331,7 +2352,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2372,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2371,7 +2392,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2391,7 +2412,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2411,7 +2432,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2431,7 +2452,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2451,7 +2472,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2471,7 +2492,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2491,7 +2512,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2511,7 +2532,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2531,7 +2552,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2551,7 +2572,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2571,7 +2592,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2591,7 +2612,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2611,7 +2632,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2631,7 +2652,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2651,7 +2672,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2671,7 +2692,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2691,7 +2712,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2711,7 +2732,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -2731,7 +2752,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -2751,7 +2772,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2771,7 +2792,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2791,7 +2812,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2811,7 +2832,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -2831,7 +2852,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -2851,7 +2872,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -2871,7 +2892,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -2891,7 +2912,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -2911,7 +2932,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -2931,7 +2952,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -2951,7 +2972,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -2971,7 +2992,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -2991,7 +3012,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3011,7 +3032,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3031,7 +3052,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -3051,7 +3072,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -3071,7 +3092,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -3091,7 +3112,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -3111,7 +3132,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -3131,7 +3152,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -3151,7 +3172,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -3171,7 +3192,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -3191,7 +3212,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -3211,7 +3232,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -3231,7 +3252,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -3251,7 +3272,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -3271,7 +3292,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -3291,7 +3312,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -3311,7 +3332,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -3331,7 +3352,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -3351,7 +3372,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -3371,7 +3392,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -3391,7 +3412,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -3411,7 +3432,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -3431,7 +3452,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -3451,7 +3472,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -3471,7 +3492,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -3491,7 +3512,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -3511,7 +3532,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -3531,7 +3552,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -3545,7 +3566,7 @@
         <v>252</v>
       </c>
       <c r="E120">
-        <v>231052121</v>
+        <v>30601010104856</v>
       </c>
       <c r="F120" t="s">
         <v>254</v>
@@ -3557,7 +3578,7 @@
         <v>30601010104856</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -3577,7 +3598,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -3597,7 +3618,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -3617,7 +3638,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -3637,7 +3658,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -3657,7 +3678,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -3677,7 +3698,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -3697,7 +3718,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -3717,7 +3738,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -3737,7 +3758,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -3757,7 +3778,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -3777,7 +3798,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -3797,7 +3818,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -3817,7 +3838,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -3837,7 +3858,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -3857,7 +3878,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -3877,7 +3898,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -3897,7 +3918,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -3917,7 +3938,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -3937,7 +3958,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -3957,7 +3978,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -3977,7 +3998,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -3997,7 +4018,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -4017,7 +4038,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -4037,7 +4058,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -4057,7 +4078,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -4077,7 +4098,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -4097,7 +4118,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -4117,7 +4138,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -4137,7 +4158,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -4157,7 +4178,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -4177,7 +4198,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -4197,7 +4218,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -4217,7 +4238,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -4237,7 +4258,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -4257,7 +4278,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -4277,7 +4298,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -4297,7 +4318,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -4317,7 +4338,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -4337,7 +4358,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -4357,7 +4378,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -4377,7 +4398,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -4397,7 +4418,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -4417,7 +4438,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -4437,7 +4458,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -4457,7 +4478,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -4477,7 +4498,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -4497,7 +4518,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -4517,7 +4538,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -4537,7 +4558,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -4557,7 +4578,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -4577,7 +4598,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -4597,7 +4618,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -4617,7 +4638,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -4637,7 +4658,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -4657,7 +4678,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -4677,7 +4698,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -4697,7 +4718,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -4717,7 +4738,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -4737,7 +4758,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -4757,7 +4778,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -4777,7 +4798,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -4797,7 +4818,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -4817,7 +4838,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -4837,7 +4858,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -4857,7 +4878,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -4877,7 +4898,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -4897,7 +4918,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -4917,7 +4938,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -4937,7 +4958,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -4957,7 +4978,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -4977,7 +4998,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -4997,7 +5018,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -5017,7 +5038,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -5037,7 +5058,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -5057,7 +5078,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -5077,7 +5098,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -5097,7 +5118,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -5117,7 +5138,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -5137,7 +5158,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -5157,7 +5178,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -5177,7 +5198,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -5197,7 +5218,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -5217,7 +5238,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -5237,7 +5258,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -5257,7 +5278,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -5277,7 +5298,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -5297,7 +5318,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -5317,7 +5338,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -5337,7 +5358,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -5357,7 +5378,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -5377,7 +5398,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -5397,7 +5418,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -5417,7 +5438,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -5437,7 +5458,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -5457,7 +5478,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -5477,7 +5498,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -5497,7 +5518,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -5517,7 +5538,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -5537,7 +5558,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -5557,7 +5578,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -5577,7 +5598,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -5597,7 +5618,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -5617,7 +5638,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -5637,7 +5658,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -5657,7 +5678,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -5677,7 +5698,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -5697,7 +5718,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -5717,7 +5738,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -5737,7 +5758,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -5757,7 +5778,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -5777,7 +5798,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -5797,7 +5818,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -5817,7 +5838,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -5837,7 +5858,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -5857,7 +5878,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -5877,7 +5898,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -5897,7 +5918,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -5917,7 +5938,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -5937,7 +5958,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -5957,7 +5978,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -5977,7 +5998,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -5997,7 +6018,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>249</v>
       </c>
